--- a/data/extracted_data/raw_round2/Dong_2022_Fig_1.xlsx
+++ b/data/extracted_data/raw_round2/Dong_2022_Fig_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinafang19961207/Desktop/biotoxin_depuration_round2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB67404-6795-CD4B-AD72-025D12002EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{EDB67404-6795-CD4B-AD72-025D12002EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CEC699C-39AB-A447-A1C2-AD20F8823246}"/>
   <bookViews>
-    <workbookView xWindow="16520" yWindow="6620" windowWidth="27640" windowHeight="16940" xr2:uid="{AD076E85-B704-E845-A746-015103389244}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{AD076E85-B704-E845-A746-015103389244}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,13 +44,13 @@
     <t>Bay scallop</t>
   </si>
   <si>
-    <t>time</t>
+    <t>Mediterranean mussel</t>
   </si>
   <si>
-    <t>toxticity</t>
+    <t>day</t>
   </si>
   <si>
-    <t>Mediterranean mussel</t>
+    <t>toxicity</t>
   </si>
 </sst>
 </file>
@@ -107,9 +107,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -147,7 +147,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -253,7 +253,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,7 +395,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -419,10 +419,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -548,7 +548,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1">
         <v>45749</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1">
         <v>45755</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1">
         <v>45758</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1">
         <v>45763</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1">
         <v>45766</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1">
         <v>45770</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1">
         <v>45774</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1">
         <v>45779</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1">
         <v>45784</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1">
         <v>45790</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" s="1">
         <v>45804</v>

--- a/data/extracted_data/raw_round2/Dong_2022_Fig_1.xlsx
+++ b/data/extracted_data/raw_round2/Dong_2022_Fig_1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{EDB67404-6795-CD4B-AD72-025D12002EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CEC699C-39AB-A447-A1C2-AD20F8823246}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{EDB67404-6795-CD4B-AD72-025D12002EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{763F6EF0-E97F-2047-B40A-B67365BB5843}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{AD076E85-B704-E845-A746-015103389244}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{AD076E85-B704-E845-A746-015103389244}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
-  <si>
-    <t>treatment</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="9">
   <si>
     <t>Bay scallop</t>
   </si>
@@ -51,6 +48,21 @@
   </si>
   <si>
     <t>toxicity</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>Depuration</t>
+  </si>
+  <si>
+    <t>Uptake</t>
+  </si>
+  <si>
+    <t>species</t>
   </si>
 </sst>
 </file>
@@ -86,9 +98,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -104,6 +117,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,267 +420,428 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8B99D9-4084-E841-9B11-395861EE7A86}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>45749</v>
-      </c>
-      <c r="C2">
+        <v>42462</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <f>B2-$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>65.240501843523802</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>45755</v>
-      </c>
-      <c r="C3">
+        <v>42468</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D23" si="0">B3-$B$2</f>
+        <v>6</v>
+      </c>
+      <c r="E3">
         <v>243.81343705441199</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>45758</v>
-      </c>
-      <c r="C4">
+        <v>42471</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E4">
         <v>581.46941943757702</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>45763</v>
-      </c>
-      <c r="C5">
+        <v>42476</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E5">
         <v>1076.3733621322399</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>45766</v>
-      </c>
-      <c r="C6">
+        <v>42479</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E6">
         <v>713.65895227086696</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>45770</v>
-      </c>
-      <c r="C7">
+        <v>42483</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E7">
         <v>666.83259789239196</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>45774</v>
-      </c>
-      <c r="C8">
+        <v>42487</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E8">
         <v>620.00624351391696</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1">
-        <v>45779</v>
-      </c>
-      <c r="C9">
+        <v>42492</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E9">
         <v>550.14638508981295</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1">
-        <v>45784</v>
-      </c>
-      <c r="C10">
+        <v>42497</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E10">
         <v>525.46763075521096</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1">
-        <v>45790</v>
-      </c>
-      <c r="C11">
+        <v>42503</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E11">
         <v>409.983716240729</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" s="1">
-        <v>45804</v>
-      </c>
-      <c r="C12">
+        <v>42517</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="E12">
         <v>65.303780700791293</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>45749</v>
-      </c>
-      <c r="C13">
+        <v>42462</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>923.68147954405504</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>45755</v>
-      </c>
-      <c r="C14">
+        <v>42468</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E14">
         <v>4061.6800114745602</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>45758</v>
-      </c>
-      <c r="C15">
+        <v>42471</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E15">
         <v>4421.92654590248</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1">
-        <v>45763</v>
-      </c>
-      <c r="C16">
+        <v>42476</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E16">
         <v>5797.7987394851598</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>45766</v>
-      </c>
-      <c r="C17">
+        <v>42479</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E17">
         <v>2498.3125638061802</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1">
-        <v>45770</v>
-      </c>
-      <c r="C18">
+        <v>42483</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E18">
         <v>1818.95075217468</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1">
-        <v>45774</v>
-      </c>
-      <c r="C19">
+        <v>42487</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E19">
         <v>1207.3605966774301</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
-        <v>45779</v>
-      </c>
-      <c r="C20">
+        <v>42492</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E20">
         <v>776.05190553732098</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1">
-        <v>45784</v>
-      </c>
-      <c r="C21">
+        <v>42497</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E21">
         <v>525.46763075521096</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1">
-        <v>45790</v>
-      </c>
-      <c r="C22">
+        <v>42503</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E22">
         <v>229.25929988272401</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
-        <v>45804</v>
-      </c>
-      <c r="C23">
+        <v>42517</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="E23">
         <v>65.303780700791293</v>
       </c>
     </row>
